--- a/data/trans_bre/P25_5-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P25_5-Estudios-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -523,6 +523,8 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -539,13 +541,15 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -567,17 +571,27 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -590,6 +604,8 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -604,32 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>4,89</t>
+          <t>9,66</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-0,29</t>
+          <t>5,76</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>3,49</t>
+          <t>7,23</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>71,02%</t>
+          <t>14,44</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-3,81%</t>
+          <t>178,01%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>54,73%</t>
+          <t>108,2%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>151,64%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>354,25%</t>
         </is>
       </c>
     </row>
@@ -642,32 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-3,26; 12,56</t>
+          <t>-3,14; 24,47</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-8,08; 8,16</t>
+          <t>-6,61; 19,01</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-4,99; 11,71</t>
+          <t>-3,38; 21,54</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-32,69; 388,12</t>
+          <t>0,01; 41,62</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-71,58; 270,21</t>
+          <t>-56,42; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-51,39; 456,54</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>-79,3; —</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>-56,78; —</t>
         </is>
       </c>
     </row>
@@ -684,32 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>1,23</t>
+          <t>2,43</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-2,55</t>
+          <t>-0,44</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,69</t>
+          <t>-1,32</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>23,68%</t>
+          <t>1,37</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-39,58%</t>
+          <t>46,37%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>12,68%</t>
+          <t>-9,18%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>-17,59%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>22,01%</t>
         </is>
       </c>
     </row>
@@ -722,32 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-2,59; 5,49</t>
+          <t>-3,1; 6,92</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-7,34; 1,22</t>
+          <t>-5,38; 3,79</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-3,72; 6,36</t>
+          <t>-7,74; 3,67</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-39,49; 169,01</t>
+          <t>-4,56; 6,26</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-74,41; 40,24</t>
+          <t>-40,84; 240,2</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-53,63; 230,42</t>
+          <t>-72,01; 177,26</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>-67,2; 97,47</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>-53,17; 169,5</t>
         </is>
       </c>
     </row>
@@ -764,32 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-3,37</t>
+          <t>-3,01</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>1,47</t>
+          <t>-0,66</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-2,8</t>
+          <t>-5,78</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-36,67%</t>
+          <t>-2,97</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>24,78%</t>
+          <t>-30,51%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-27,69%</t>
+          <t>-8,74%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>-45,61%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>-25,96%</t>
         </is>
       </c>
     </row>
@@ -802,39 +868,49 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-11,18; 2,17</t>
+          <t>-13,8; 3,71</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-3,13; 6,38</t>
+          <t>-6,46; 5,62</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-9,56; 3,52</t>
+          <t>-15,08; 1,86</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-75,16; 40,31</t>
+          <t>-12,65; 5,75</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-38,42; 202,7</t>
+          <t>-79,86; 82,7</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-65,72; 59,77</t>
+          <t>-62,36; 142,76</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>-79,14; 36,85</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>-73,97; 115,01</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -844,32 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,36</t>
+          <t>—</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-0,74</t>
+          <t>—</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,26</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>5,25%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-11,52%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>3,66%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -882,42 +968,160 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-3,35; 3,32</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-3,79; 2,29</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-3,0; 3,43</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-38,37; 64,48</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-45,01; 48,75</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-36,28; 64,5</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>1,34</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>0,44</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>-1,58</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>2,4</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>19,21%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>7,43%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>-17,77%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>31,53%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>-3,69; 5,46</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>-3,16; 4,16</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>-5,98; 2,73</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>-2,31; 9,97</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>-38,74; 112,93</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>-41,15; 101,46</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-52,6; 48,76</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>-29,16; 188,15</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="C1:E1"/>
+  <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
   </mergeCells>

--- a/data/trans_bre/P25_5-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P25_5-Estudios-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J14"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -618,299 +627,189 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>9,66</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>5,76</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>7,23</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>14,44</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>178,01%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>108,2%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>151,64%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>354,25%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>11.4113530095335</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>6.411295350610134</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>6.491736913614698</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>11.21981213079166</v>
+      </c>
+      <c r="G4" s="6" t="n">
+        <v>2.433482349822834</v>
+      </c>
+      <c r="H4" s="6" t="n">
+        <v>1.312214492443632</v>
+      </c>
+      <c r="I4" s="6" t="n">
+        <v>1.298423607865082</v>
+      </c>
+      <c r="J4" s="6" t="n">
+        <v>2.556304410073417</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-3,14; 24,47</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-6,61; 19,01</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-3,38; 21,54</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>0,01; 41,62</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>-56,42; —</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>-79,3; —</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>-56,78; —</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-0.6068314566902792</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-5.323066243492155</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-4.624148087282533</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>-1.246769873275707</v>
+      </c>
+      <c r="G5" s="6" t="n">
+        <v>-0.4452734948096291</v>
+      </c>
+      <c r="H5" s="6" t="inlineStr"/>
+      <c r="I5" s="6" t="n">
+        <v>-0.8137029876263194</v>
+      </c>
+      <c r="J5" s="6" t="n">
+        <v>-0.6711037954153338</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>26.42825202662405</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>20.77153673672844</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>19.23059194676356</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>35.53398568989811</v>
+      </c>
+      <c r="G6" s="6" t="inlineStr"/>
+      <c r="H6" s="6" t="inlineStr"/>
+      <c r="I6" s="6" t="inlineStr"/>
+      <c r="J6" s="6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Secundaria o FP grado sup</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>2,43</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>-0,44</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>-1,32</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>1,37</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>46,37%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>-9,18%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>-17,59%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>22,01%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-3,1; 6,92</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-5,38; 3,79</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-7,74; 3,67</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-4,56; 6,26</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>-40,84; 240,2</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>-72,01; 177,26</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>-67,2; 97,47</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>-53,17; 169,5</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>2.062528106492737</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>-1.766600237604383</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>-2.699782701974357</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>0.8248415809624585</v>
+      </c>
+      <c r="G7" s="6" t="n">
+        <v>0.3701561630107869</v>
+      </c>
+      <c r="H7" s="6" t="n">
+        <v>-0.293861026597805</v>
+      </c>
+      <c r="I7" s="6" t="n">
+        <v>-0.3088470301930193</v>
+      </c>
+      <c r="J7" s="6" t="n">
+        <v>0.1269333404701338</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Estudios universitarios o más</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>-3,01</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>-0,66</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>-5,78</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>-2,97</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>-30,51%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>-8,74%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>-45,61%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>-25,96%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>-3.836443791008303</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-8.116132598811246</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>-11.20419597262999</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>-5.305758554966183</v>
+      </c>
+      <c r="G8" s="6" t="n">
+        <v>-0.4715573043613865</v>
+      </c>
+      <c r="H8" s="6" t="n">
+        <v>-0.7970928004266146</v>
+      </c>
+      <c r="I8" s="6" t="n">
+        <v>-0.738266090113858</v>
+      </c>
+      <c r="J8" s="6" t="n">
+        <v>-0.5621214413515857</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-13,8; 3,71</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-6,46; 5,62</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-15,08; 1,86</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-12,65; 5,75</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>-79,86; 82,7</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>-62,36; 142,76</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>-79,14; 36,85</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>-73,97; 115,01</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>6.841525124849442</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>2.806826908148687</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>2.971868328019406</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>5.759698742580741</v>
+      </c>
+      <c r="G9" s="6" t="n">
+        <v>2.142461324422632</v>
+      </c>
+      <c r="H9" s="6" t="n">
+        <v>1.115794155965123</v>
+      </c>
+      <c r="I9" s="6" t="n">
+        <v>0.6466532656807559</v>
+      </c>
+      <c r="J9" s="6" t="n">
+        <v>1.48155319712717</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>No Pertenece a Medición</t>
+          <t>Estudios universitarios o más</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -918,212 +817,211 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
+      <c r="C10" s="5" t="n">
+        <v>-2.367877359857355</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>-0.3967920569486055</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>-5.759422304460069</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>-2.547646987960434</v>
+      </c>
+      <c r="G10" s="6" t="n">
+        <v>-0.2559942595195499</v>
+      </c>
+      <c r="H10" s="6" t="n">
+        <v>-0.05342576646378902</v>
+      </c>
+      <c r="I10" s="6" t="n">
+        <v>-0.4473090179672354</v>
+      </c>
+      <c r="J10" s="6" t="n">
+        <v>-0.2344926461003748</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-13.27210033719101</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-6.711086690424111</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-15.23047079996598</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>-12.0212655379265</v>
+      </c>
+      <c r="G11" s="6" t="n">
+        <v>-0.7961999370973061</v>
+      </c>
+      <c r="H11" s="6" t="n">
+        <v>-0.6270088464869558</v>
+      </c>
+      <c r="I11" s="6" t="n">
+        <v>-0.7844315453063733</v>
+      </c>
+      <c r="J11" s="6" t="n">
+        <v>-0.7363392287894889</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>4.239594767731202</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>5.611749994392012</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>2.036024396775534</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>5.845163414552156</v>
+      </c>
+      <c r="G12" s="6" t="n">
+        <v>0.9755625008705273</v>
+      </c>
+      <c r="H12" s="6" t="n">
+        <v>1.410450533560348</v>
+      </c>
+      <c r="I12" s="6" t="n">
+        <v>0.3584717649347823</v>
+      </c>
+      <c r="J12" s="6" t="n">
+        <v>1.121964223290668</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="B12" s="3" t="inlineStr">
+      <c r="B13" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>1,34</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>0,44</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>-1,58</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>2,4</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>19,21%</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>7,43%</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>-17,77%</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>31,53%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>-3,69; 5,46</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>-3,16; 4,16</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>-5,98; 2,73</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>-2,31; 9,97</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>-38,74; 112,93</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>-41,15; 101,46</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>-52,6; 48,76</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>-29,16; 188,15</t>
-        </is>
+      <c r="C13" s="5" t="n">
+        <v>1.593090961618228</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>-0.0261400549820906</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>-2.355603481933888</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>1.694550544354863</v>
+      </c>
+      <c r="G13" s="6" t="n">
+        <v>0.2320712430598895</v>
+      </c>
+      <c r="H13" s="6" t="n">
+        <v>-0.004094470152754571</v>
+      </c>
+      <c r="I13" s="6" t="n">
+        <v>-0.2439790229390702</v>
+      </c>
+      <c r="J13" s="6" t="n">
+        <v>0.222754005353046</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>-3.595050621866021</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-4.042646236270262</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>-7.510890678341172</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>-3.099182698045777</v>
+      </c>
+      <c r="G14" s="6" t="n">
+        <v>-0.3770368360038402</v>
+      </c>
+      <c r="H14" s="6" t="n">
+        <v>-0.4546962719696375</v>
+      </c>
+      <c r="I14" s="6" t="n">
+        <v>-0.5711867152138773</v>
+      </c>
+      <c r="J14" s="6" t="n">
+        <v>-0.3206035342026983</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>5.863157050358982</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>3.695794759217187</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>1.97097180117792</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>7.782473882854251</v>
+      </c>
+      <c r="G15" s="6" t="n">
+        <v>1.257427576908342</v>
+      </c>
+      <c r="H15" s="6" t="n">
+        <v>0.9178533211375457</v>
+      </c>
+      <c r="I15" s="6" t="n">
+        <v>0.3159159083103331</v>
+      </c>
+      <c r="J15" s="6" t="n">
+        <v>1.559363334589257</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A1:B2"/>
+  <mergeCells count="7">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="C1:F1"/>
     <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
